--- a/testcases/Number Lookup TC-013.xlsx
+++ b/testcases/Number Lookup TC-013.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\luxetrainee\cypress_cucumber\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71504F82-A79E-4EE7-B18C-63C352DB42CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6526CC-76D0-4A28-8289-69ADDD9332FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11295" yWindow="1680" windowWidth="15555" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12675" yWindow="2100" windowWidth="15555" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
